--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H2">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I2">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J2">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.4837085630767</v>
+        <v>66.76259466666666</v>
       </c>
       <c r="N2">
-        <v>62.4837085630767</v>
+        <v>200.287784</v>
       </c>
       <c r="O2">
-        <v>0.706903956637475</v>
+        <v>0.7017136742427041</v>
       </c>
       <c r="P2">
-        <v>0.706903956637475</v>
+        <v>0.7182986969711617</v>
       </c>
       <c r="Q2">
-        <v>795.807121100474</v>
+        <v>855.4644651307768</v>
       </c>
       <c r="R2">
-        <v>795.807121100474</v>
+        <v>7699.180186176991</v>
       </c>
       <c r="S2">
-        <v>0.2666625549147468</v>
+        <v>0.2436090235651298</v>
       </c>
       <c r="T2">
-        <v>0.2666625549147468</v>
+        <v>0.255795947861477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H3">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I3">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J3">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.496532349398</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N3">
-        <v>19.496532349398</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O3">
-        <v>0.2205723087736861</v>
+        <v>0.2283528211946823</v>
       </c>
       <c r="P3">
-        <v>0.2205723087736861</v>
+        <v>0.2337499466443302</v>
       </c>
       <c r="Q3">
-        <v>248.312394338021</v>
+        <v>278.3866571436475</v>
       </c>
       <c r="R3">
-        <v>248.312394338021</v>
+        <v>2505.479914292827</v>
       </c>
       <c r="S3">
-        <v>0.0832056106756235</v>
+        <v>0.07927565022815662</v>
       </c>
       <c r="T3">
-        <v>0.0832056106756235</v>
+        <v>0.08324153923232952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7362338024017</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H4">
-        <v>12.7362338024017</v>
+        <v>38.440588</v>
       </c>
       <c r="I4">
-        <v>0.3772260041988996</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J4">
-        <v>0.3772260041988996</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.41042089721798</v>
+        <v>0.06332366666666667</v>
       </c>
       <c r="N4">
-        <v>6.41042089721798</v>
+        <v>0.189971</v>
       </c>
       <c r="O4">
-        <v>0.07252373458883901</v>
+        <v>0.0006655685421611174</v>
       </c>
       <c r="P4">
-        <v>0.07252373458883901</v>
+        <v>0.000681299273660687</v>
       </c>
       <c r="Q4">
-        <v>81.64461931876987</v>
+        <v>0.8113996603275555</v>
       </c>
       <c r="R4">
-        <v>81.64461931876987</v>
+        <v>7.302596942948</v>
       </c>
       <c r="S4">
-        <v>0.02735783860852926</v>
+        <v>0.0002310607711136855</v>
       </c>
       <c r="T4">
-        <v>0.02735783860852926</v>
+        <v>0.0002426199493584325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.3153615860542</v>
+        <v>12.81352933333333</v>
       </c>
       <c r="H5">
-        <v>18.3153615860542</v>
+        <v>38.440588</v>
       </c>
       <c r="I5">
-        <v>0.5424704644839665</v>
+        <v>0.3471629989654041</v>
       </c>
       <c r="J5">
-        <v>0.5424704644839665</v>
+        <v>0.3561136181091343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.4837085630767</v>
+        <v>6.590304999999999</v>
       </c>
       <c r="N5">
-        <v>62.4837085630767</v>
+        <v>13.18061</v>
       </c>
       <c r="O5">
-        <v>0.706903956637475</v>
+        <v>0.06926793602045241</v>
       </c>
       <c r="P5">
-        <v>0.706903956637475</v>
+        <v>0.04727005711084737</v>
       </c>
       <c r="Q5">
-        <v>1144.411715570381</v>
+        <v>84.44506643311333</v>
       </c>
       <c r="R5">
-        <v>1144.411715570381</v>
+        <v>506.6703985986799</v>
       </c>
       <c r="S5">
-        <v>0.3834745177026848</v>
+        <v>0.024047264401004</v>
       </c>
       <c r="T5">
-        <v>0.3834745177026848</v>
+        <v>0.01683351106596927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H6">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I6">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J6">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.496532349398</v>
+        <v>66.76259466666666</v>
       </c>
       <c r="N6">
-        <v>19.496532349398</v>
+        <v>200.287784</v>
       </c>
       <c r="O6">
-        <v>0.2205723087736861</v>
+        <v>0.7017136742427041</v>
       </c>
       <c r="P6">
-        <v>0.2205723087736861</v>
+        <v>0.7182986969711617</v>
       </c>
       <c r="Q6">
-        <v>357.0860396534271</v>
+        <v>1389.512858335693</v>
       </c>
       <c r="R6">
-        <v>357.0860396534271</v>
+        <v>12505.61572502124</v>
       </c>
       <c r="S6">
-        <v>0.1196539627927624</v>
+        <v>0.3956889905398979</v>
       </c>
       <c r="T6">
-        <v>0.1196539627927624</v>
+        <v>0.4154839542158578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.3153615860542</v>
+        <v>20.812745</v>
       </c>
       <c r="H7">
-        <v>18.3153615860542</v>
+        <v>62.438235</v>
       </c>
       <c r="I7">
-        <v>0.5424704644839665</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J7">
-        <v>0.5424704644839665</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.41042089721798</v>
+        <v>21.72599366666666</v>
       </c>
       <c r="N7">
-        <v>6.41042089721798</v>
+        <v>65.17798099999999</v>
       </c>
       <c r="O7">
-        <v>0.07252373458883901</v>
+        <v>0.2283528211946823</v>
       </c>
       <c r="P7">
-        <v>0.07252373458883901</v>
+        <v>0.2337499466443302</v>
       </c>
       <c r="Q7">
-        <v>117.4091766513453</v>
+        <v>452.1775660559483</v>
       </c>
       <c r="R7">
-        <v>117.4091766513453</v>
+        <v>4069.598094503534</v>
       </c>
       <c r="S7">
-        <v>0.03934198398851941</v>
+        <v>0.1287657639035971</v>
       </c>
       <c r="T7">
-        <v>0.03934198398851941</v>
+        <v>0.1352074736304739</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.71127795705789</v>
+        <v>20.812745</v>
       </c>
       <c r="H8">
-        <v>2.71127795705789</v>
+        <v>62.438235</v>
       </c>
       <c r="I8">
-        <v>0.08030353131713384</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J8">
-        <v>0.08030353131713384</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>62.4837085630767</v>
+        <v>0.06332366666666667</v>
       </c>
       <c r="N8">
-        <v>62.4837085630767</v>
+        <v>0.189971</v>
       </c>
       <c r="O8">
-        <v>0.706903956637475</v>
+        <v>0.0006655685421611174</v>
       </c>
       <c r="P8">
-        <v>0.706903956637475</v>
+        <v>0.000681299273660687</v>
       </c>
       <c r="Q8">
-        <v>169.4107017022992</v>
+        <v>1.317939326798333</v>
       </c>
       <c r="R8">
-        <v>169.4107017022992</v>
+        <v>11.861453941185</v>
       </c>
       <c r="S8">
-        <v>0.0567668840200433</v>
+        <v>0.0003753071291749624</v>
       </c>
       <c r="T8">
-        <v>0.0567668840200433</v>
+        <v>0.0003940824582009491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.71127795705789</v>
+        <v>20.812745</v>
       </c>
       <c r="H9">
-        <v>2.71127795705789</v>
+        <v>62.438235</v>
       </c>
       <c r="I9">
-        <v>0.08030353131713384</v>
+        <v>0.563889525121381</v>
       </c>
       <c r="J9">
-        <v>0.08030353131713384</v>
+        <v>0.5784278267074995</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.496532349398</v>
+        <v>6.590304999999999</v>
       </c>
       <c r="N9">
-        <v>19.496532349398</v>
+        <v>13.18061</v>
       </c>
       <c r="O9">
-        <v>0.2205723087736861</v>
+        <v>0.06926793602045241</v>
       </c>
       <c r="P9">
-        <v>0.2205723087736861</v>
+        <v>0.04727005711084737</v>
       </c>
       <c r="Q9">
-        <v>52.86051839798888</v>
+        <v>137.162337437225</v>
       </c>
       <c r="R9">
-        <v>52.86051839798888</v>
+        <v>822.9740246233498</v>
       </c>
       <c r="S9">
-        <v>0.01771273530530022</v>
+        <v>0.03905946354871111</v>
       </c>
       <c r="T9">
-        <v>0.01771273530530022</v>
+        <v>0.02734231640296683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.341023</v>
+      </c>
+      <c r="I10">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J10">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>66.76259466666666</v>
+      </c>
+      <c r="N10">
+        <v>200.287784</v>
+      </c>
+      <c r="O10">
+        <v>0.7017136742427041</v>
+      </c>
+      <c r="P10">
+        <v>0.7182986969711617</v>
+      </c>
+      <c r="Q10">
+        <v>29.84339166255911</v>
+      </c>
+      <c r="R10">
+        <v>268.590524963032</v>
+      </c>
+      <c r="S10">
+        <v>0.008498447099934608</v>
+      </c>
+      <c r="T10">
+        <v>0.008923595273543724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.341023</v>
+      </c>
+      <c r="I11">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J11">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.72599366666666</v>
+      </c>
+      <c r="N11">
+        <v>65.17798099999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2283528211946823</v>
+      </c>
+      <c r="P11">
+        <v>0.2337499466443302</v>
+      </c>
+      <c r="Q11">
+        <v>9.711685734951443</v>
+      </c>
+      <c r="R11">
+        <v>87.40517161456299</v>
+      </c>
+      <c r="S11">
+        <v>0.002765578671583101</v>
+      </c>
+      <c r="T11">
+        <v>0.002903931091427536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.341023</v>
+      </c>
+      <c r="I12">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J12">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06332366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.189971</v>
+      </c>
+      <c r="O12">
+        <v>0.0006655685421611174</v>
+      </c>
+      <c r="P12">
+        <v>0.000681299273660687</v>
+      </c>
+      <c r="Q12">
+        <v>0.02830616448144445</v>
+      </c>
+      <c r="R12">
+        <v>0.254755480333</v>
+      </c>
+      <c r="S12">
+        <v>8.060693776619335E-06</v>
+      </c>
+      <c r="T12">
+        <v>8.463942652190784E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4470076666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.341023</v>
+      </c>
+      <c r="I13">
+        <v>0.01211098972683725</v>
+      </c>
+      <c r="J13">
+        <v>0.01242323745145536</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.590304999999999</v>
+      </c>
+      <c r="N13">
+        <v>13.18061</v>
+      </c>
+      <c r="O13">
+        <v>0.06926793602045241</v>
+      </c>
+      <c r="P13">
+        <v>0.04727005711084737</v>
+      </c>
+      <c r="Q13">
+        <v>2.945916860671666</v>
+      </c>
+      <c r="R13">
+        <v>17.67550116403</v>
+      </c>
+      <c r="S13">
+        <v>0.0008389032615429188</v>
+      </c>
+      <c r="T13">
+        <v>0.000587247143831913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.158782</v>
+      </c>
+      <c r="I14">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J14">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>66.76259466666666</v>
+      </c>
+      <c r="N14">
+        <v>200.287784</v>
+      </c>
+      <c r="O14">
+        <v>0.7017136742427041</v>
+      </c>
+      <c r="P14">
+        <v>0.7182986969711617</v>
+      </c>
+      <c r="Q14">
+        <v>3.533566102120889</v>
+      </c>
+      <c r="R14">
+        <v>31.802094919088</v>
+      </c>
+      <c r="S14">
+        <v>0.001006247042311591</v>
+      </c>
+      <c r="T14">
+        <v>0.001056586132172095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.158782</v>
+      </c>
+      <c r="I15">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J15">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.72599366666666</v>
+      </c>
+      <c r="N15">
+        <v>65.17798099999999</v>
+      </c>
+      <c r="O15">
+        <v>0.2283528211946823</v>
+      </c>
+      <c r="P15">
+        <v>0.2337499466443302</v>
+      </c>
+      <c r="Q15">
+        <v>1.149898908793555</v>
+      </c>
+      <c r="R15">
+        <v>10.349090179142</v>
+      </c>
+      <c r="S15">
+        <v>0.00032745457209258</v>
+      </c>
+      <c r="T15">
+        <v>0.0003438360017382603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.158782</v>
+      </c>
+      <c r="I16">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J16">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06332366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.189971</v>
+      </c>
+      <c r="O16">
+        <v>0.0006655685421611174</v>
+      </c>
+      <c r="P16">
+        <v>0.000681299273660687</v>
+      </c>
+      <c r="Q16">
+        <v>0.003351552813555556</v>
+      </c>
+      <c r="R16">
+        <v>0.030163975322</v>
+      </c>
+      <c r="S16">
+        <v>9.544154568856548E-07</v>
+      </c>
+      <c r="T16">
+        <v>1.002161590218928E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05292733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.158782</v>
+      </c>
+      <c r="I17">
+        <v>0.001433985226805709</v>
+      </c>
+      <c r="J17">
+        <v>0.001470956492928895</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.590304999999999</v>
+      </c>
+      <c r="N17">
+        <v>13.18061</v>
+      </c>
+      <c r="O17">
+        <v>0.06926793602045241</v>
+      </c>
+      <c r="P17">
+        <v>0.04727005711084737</v>
+      </c>
+      <c r="Q17">
+        <v>0.3488072695033333</v>
+      </c>
+      <c r="R17">
+        <v>2.09284361702</v>
+      </c>
+      <c r="S17">
+        <v>9.932919694465176E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.953219742832062E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.7830505</v>
+      </c>
+      <c r="H18">
+        <v>5.566101</v>
+      </c>
+      <c r="I18">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J18">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>66.76259466666666</v>
+      </c>
+      <c r="N18">
+        <v>200.287784</v>
+      </c>
+      <c r="O18">
+        <v>0.7017136742427041</v>
+      </c>
+      <c r="P18">
+        <v>0.7182986969711617</v>
+      </c>
+      <c r="Q18">
+        <v>185.803672468364</v>
+      </c>
+      <c r="R18">
+        <v>1114.822034810184</v>
+      </c>
+      <c r="S18">
+        <v>0.05291096599543012</v>
+      </c>
+      <c r="T18">
+        <v>0.03703861348811093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.7830505</v>
+      </c>
+      <c r="H19">
+        <v>5.566101</v>
+      </c>
+      <c r="I19">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J19">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.72599366666666</v>
+      </c>
+      <c r="N19">
+        <v>65.17798099999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2283528211946823</v>
+      </c>
+      <c r="P19">
+        <v>0.2337499466443302</v>
+      </c>
+      <c r="Q19">
+        <v>60.46453753701349</v>
+      </c>
+      <c r="R19">
+        <v>362.7872252220809</v>
+      </c>
+      <c r="S19">
+        <v>0.01721837381925295</v>
+      </c>
+      <c r="T19">
+        <v>0.01205316668836097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="H10">
-        <v>2.71127795705789</v>
-      </c>
-      <c r="I10">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="J10">
-        <v>0.08030353131713384</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.41042089721798</v>
-      </c>
-      <c r="N10">
-        <v>6.41042089721798</v>
-      </c>
-      <c r="O10">
-        <v>0.07252373458883901</v>
-      </c>
-      <c r="P10">
-        <v>0.07252373458883901</v>
-      </c>
-      <c r="Q10">
-        <v>17.38043287409037</v>
-      </c>
-      <c r="R10">
-        <v>17.38043287409037</v>
-      </c>
-      <c r="S10">
-        <v>0.005823911991790337</v>
-      </c>
-      <c r="T10">
-        <v>0.005823911991790337</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.7830505</v>
+      </c>
+      <c r="H20">
+        <v>5.566101</v>
+      </c>
+      <c r="I20">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J20">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06332366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.189971</v>
+      </c>
+      <c r="O20">
+        <v>0.0006655685421611174</v>
+      </c>
+      <c r="P20">
+        <v>0.000681299273660687</v>
+      </c>
+      <c r="Q20">
+        <v>0.1762329621785</v>
+      </c>
+      <c r="R20">
+        <v>1.057397773071</v>
+      </c>
+      <c r="S20">
+        <v>5.018553263896442E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.513076185889562E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.7830505</v>
+      </c>
+      <c r="H21">
+        <v>5.566101</v>
+      </c>
+      <c r="I21">
+        <v>0.07540250095957175</v>
+      </c>
+      <c r="J21">
+        <v>0.05156436123898184</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.590304999999999</v>
+      </c>
+      <c r="N21">
+        <v>13.18061</v>
+      </c>
+      <c r="O21">
+        <v>0.06926793602045241</v>
+      </c>
+      <c r="P21">
+        <v>0.04727005711084737</v>
+      </c>
+      <c r="Q21">
+        <v>18.3411516254025</v>
+      </c>
+      <c r="R21">
+        <v>73.36460650160998</v>
+      </c>
+      <c r="S21">
+        <v>0.005222975612249717</v>
+      </c>
+      <c r="T21">
+        <v>0.002437450300651036</v>
       </c>
     </row>
   </sheetData>
